--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -193,51 +259,51 @@
     <col min="7" max="7" width="15.77734375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32515334221612496</v>
+        <v>0.32502347044003449</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.3105743669795607</v>
+        <v>0.31057177863251256</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0051584969032159277</v>
+        <v>-0.0051344690496690319</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00012998188617319601</v>
+        <v>0.00012651340868778977</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0014418655443377377</v>
+        <v>-0.0014006804290727355</v>
       </c>
       <c r="G3" s="0">
-        <v>-9.5649996285208133e-06</v>
+        <v>-8.2471569144214004e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-5.1166895907766835e-05</v>
+        <v>-5.0537938329686399e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00017827323486706132</v>
+        <v>-0.00017364899221500153</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0016821859624626123</v>
+        <v>0.0016821921575577714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30277298102246802</v>
+        <v>0.30211243500151946</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0017170861115836504</v>
+        <v>-0.0020719037911161222</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00070532283262209126</v>
+        <v>0.00069881328651127299</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00010155470971161338</v>
+        <v>0.00010125562092727167</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00013396887583298208</v>
+        <v>0.00013381300269377282</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0032541642173224785</v>
+        <v>-0.0032447266081748805</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00034483814832033597</v>
+        <v>0.00033892598996903948</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00030062195921393142</v>
+        <v>0.00030062236894101702</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31567611596261014</v>
+        <v>0.31532339023538009</v>
       </c>
       <c r="C5" s="0">
-        <v>0.010710703294019366</v>
+        <v>0.011199870116121906</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0072648976074411124</v>
+        <v>-0.0072793023627976865</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00037235142534482922</v>
+        <v>0.00038654001282841389</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0013877358685870365</v>
+        <v>0.0013763000027983408</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00138372383784454</v>
+        <v>-0.0013825990189628339</v>
       </c>
       <c r="H5" s="0">
-        <v>1.0846777522302126e-05</v>
+        <v>1.0181954510778276e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00078551034376980462</v>
+        <v>-0.00078531839148628698</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00087626296601289733</v>
+        <v>-0.00087626276821933802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.33217610954934057</v>
+        <v>0.33194199489370269</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021519292009074167</v>
+        <v>0.021405881670824578</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00013475007859858591</v>
+        <v>-0.00013458824874148489</v>
       </c>
       <c r="F6" s="0">
-        <v>2.8296013064612456e-05</v>
+        <v>2.9144891915106232e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010872240210199202</v>
+        <v>-0.00010985849897442274</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0026182123500190124</v>
+        <v>-0.0026353929485320149</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00033728032812480047</v>
+        <v>0.00033727530335758704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28095647572279725</v>
+        <v>0.28099380531631679</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.003292345260631623</v>
+        <v>-0.0033193973249965869</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0016882551153612341</v>
+        <v>-0.0016700569639217695</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0078302712990900806</v>
+        <v>-0.0078324663365241329</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0012925088881515973</v>
+        <v>0.0012963830765681662</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00043036142359542001</v>
+        <v>0.00042995689277659603</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0033897598793605765</v>
+        <v>-0.0033897624850855457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.19585935462151693</v>
+        <v>0.19734357806909752</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.056134865151689903</v>
+        <v>-0.055697533935845679</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00013240251759818368</v>
+        <v>-0.00012976611907091805</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00024893594263830377</v>
+        <v>-0.00024861972354934869</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.846259064539188e-05</v>
+        <v>5.8390879733008366e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00051693903550715733</v>
+        <v>0.0005317127240763573</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00037348644769497064</v>
+        <v>0.00037345569605096163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23837530129075424</v>
+        <v>0.23989668626555088</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0075971713592679268</v>
+        <v>0.0076392817106952383</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0030134795438677259</v>
+        <v>-0.0030233298577300094</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0041966916884360154</v>
+        <v>-0.004210686663890832</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0023809768741032016</v>
+        <v>0.0023662913844303634</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00017704151845904112</v>
+        <v>-0.00017754292745641558</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00033226623601836572</v>
+        <v>0.00033274180136134204</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0026319968083089451</v>
+        <v>-0.0026320054762256906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34420027806924697</v>
+        <v>0.34271831581142653</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094492770701635365</v>
+        <v>0.094313953635468531</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00099133515001738879</v>
+        <v>-0.00098603463363026848</v>
       </c>
       <c r="F10" s="0">
-        <v>-9.1688224587073487e-05</v>
+        <v>-9.1753439659538852e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-7.85160978437467e-06</v>
+        <v>-7.8445530793322647e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0013326938477469608</v>
+        <v>0.0013287761472830771</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0023868810835743822</v>
+        <v>-0.0023844666620871069</v>
       </c>
       <c r="K10" s="0">
-        <v>5.1334221124410551e-05</v>
+        <v>5.1324521005702284e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34836031097870368</v>
+        <v>0.34763464431791269</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.037342697538945757</v>
+        <v>-0.037252962104519408</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0042181454438657172</v>
+        <v>0.0041981933087426697</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0070104802860727978</v>
+        <v>0.0069994267258019103</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0043262653468202376</v>
+        <v>0.0043319709090667326</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0011167399386287924</v>
+        <v>0.001117989105673117</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0065752511268213258</v>
+        <v>0.0065651376141952307</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0077692234409847405</v>
+        <v>0.0077692383492626305</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.27514500441174428</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.067540347609623325</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.002967354847361197</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.3745111704383265e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>3.9556557219128888e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0037414542617268572</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0049121516990765501</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32502347044003449</v>
+        <v>0.3251422245010952</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31057177863251256</v>
+        <v>0.31054885994571507</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0051344690496690319</v>
+        <v>-0.0051991002367254742</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00012651340868778977</v>
+        <v>0.00012720891085573187</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0014006804290727355</v>
+        <v>-0.0014303018439524526</v>
       </c>
       <c r="G3" s="0">
-        <v>-8.2471569144214004e-06</v>
+        <v>-5.4552020998781148e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-5.0537938329686399e-05</v>
+        <v>-5.1093943543244391e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00017364899221500153</v>
+        <v>-0.00017370092416552944</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0016821921575577714</v>
+        <v>0.0016821920391917322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30211243500151946</v>
+        <v>0.30255515666100014</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0020719037911161222</v>
+        <v>-0.0016972939769359196</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00069881328651127299</v>
+        <v>0.00069899014320125741</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00010125562092727167</v>
+        <v>9.9210404557366089e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00013381300269377282</v>
+        <v>0.00013283762852691589</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0032447266081748805</v>
+        <v>-0.0032230267603730292</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00033892598996903948</v>
+        <v>0.00033438379404667634</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00030062236894101702</v>
+        <v>0.00030059989213754301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31532339023538009</v>
+        <v>0.31443618797422496</v>
       </c>
       <c r="C5" s="0">
-        <v>0.011199870116121906</v>
+        <v>0.010532744635880352</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0072793023627976865</v>
+        <v>-0.0072702019492220252</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00038654001282841389</v>
+        <v>0.00037264089675348986</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0013763000027983408</v>
+        <v>0.001327518357414216</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0013825990189628339</v>
+        <v>-0.0013845948934385563</v>
       </c>
       <c r="H5" s="0">
-        <v>1.0181954510778276e-05</v>
+        <v>1.0566307399237218e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00078531839148628698</v>
+        <v>-0.00078517255343091362</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00087626276821933802</v>
+        <v>-0.00087625741350427777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.33194199489370269</v>
+        <v>0.33150834406582469</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021405881670824578</v>
+        <v>0.021856290373537188</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00013458824874148489</v>
+        <v>-0.00013463862965801225</v>
       </c>
       <c r="F6" s="0">
-        <v>2.9144891915106232e-05</v>
+        <v>3.0233322503695322e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010985849897442274</v>
+        <v>-0.00011110338771454758</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0026353929485320149</v>
+        <v>-0.0026449515576212192</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00033727530335758704</v>
+        <v>0.00033727428917124103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28099380531631679</v>
+        <v>0.28115223131875411</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0033193973249965869</v>
+        <v>-0.0033141185023813423</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0016700569639217695</v>
+        <v>-0.0016383387171919556</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0078324663365241329</v>
+        <v>-0.0077910270104403949</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0012963830765681662</v>
+        <v>0.001300544962961206</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00042995689277659603</v>
+        <v>0.0004287960007878424</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0033897624850855457</v>
+        <v>-0.0033897815640800411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.19734357806909752</v>
+        <v>0.19695082670070524</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.055697533935845679</v>
+        <v>-0.056341560122196446</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00012976611907091805</v>
+        <v>-0.00013023540984900754</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00024861972354934869</v>
+        <v>-0.00024859381669347454</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.8390879733008366e-05</v>
+        <v>5.854375164558323e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0005317127240763573</v>
+        <v>0.00055406586938583672</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00037345569605096163</v>
+        <v>0.00037347354799488475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23989668626555088</v>
+        <v>0.23916504868273647</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0076392817106952383</v>
+        <v>0.0075340308748762762</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0030233298577300094</v>
+        <v>-0.0030350729214664945</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.004210686663890832</v>
+        <v>-0.0042208143917732682</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0023662913844303634</v>
+        <v>0.0023879338430617069</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00017754292745641558</v>
+        <v>-0.00017683837170334328</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00033274180136134204</v>
+        <v>0.00033324610100618235</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0026320054762256906</v>
+        <v>-0.0026319958906689256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34271831581142653</v>
+        <v>0.34438978890165051</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094313953635468531</v>
+        <v>0.094962331876850603</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00098603463363026848</v>
+        <v>-0.00099684096990669676</v>
       </c>
       <c r="F10" s="0">
-        <v>-9.1753439659538852e-05</v>
+        <v>-9.4823090819680955e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-7.8445530793322647e-06</v>
+        <v>-7.9084271115780502e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0013287761472830771</v>
+        <v>0.0013434473409130346</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0023844666620871069</v>
+        <v>-0.0023301851793955555</v>
       </c>
       <c r="K10" s="0">
-        <v>5.1324521005702284e-05</v>
+        <v>5.1345022440585364e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34763464431791269</v>
+        <v>0.34789870849560656</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.037252962104519408</v>
+        <v>-0.037617322892896356</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0041981933087426697</v>
+        <v>0.004178358135825861</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0069994267258019103</v>
+        <v>0.0068728533102900132</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0043319709090667326</v>
+        <v>0.0043587606410882482</v>
       </c>
       <c r="H11" s="0">
-        <v>0.001117989105673117</v>
+        <v>0.0011171775037886159</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0065651376141952307</v>
+        <v>0.0066123999361616939</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0077692383492626305</v>
+        <v>0.0077692188519373762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.27514500441174428</v>
+        <v>0.33540586790663696</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.067540347609623325</v>
+        <v>-0.069939755311716853</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.002967354847361197</v>
+        <v>0.0031137234882218203</v>
       </c>
       <c r="F12" s="0">
-        <v>2.3745111704383265e-05</v>
+        <v>0.0032879839322097868</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>3.9556557219128888e-06</v>
+        <v>0.002158541841414651</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0037414542617268572</v>
+        <v>0.015880945519888348</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0049121516990765501</v>
+        <v>-0.0044908041918655384</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.33595824947446051</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.036517863440744168</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0089306559366795282</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.029328924176938703</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00051801289510411506</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00039676201569202862</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00072035342426167665</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.057369676258336721</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.32102457998215511</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.10229212549687659</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0009981040669897977</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.0003765008263733274</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00020152379782273949</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.028639182497637201</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-9.289709987925221e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.3251422245010952</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.31054885994571507</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30255515666100014</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.31443618797422496</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.33150834406582469</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.28115223131875411</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.19695082670070524</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.23916504868273647</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.34438978890165051</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.34789870849560656</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.33540586790663696</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.33595824947446051</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.32102457998215511</v>
+        <v>0.35633547986533792</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.10229212549687659</v>
+        <v>-0.084478031565349901</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0009981040669897977</v>
+        <v>-0.0011139584750689444</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0003765008263733274</v>
+        <v>-4.3225336398102971e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00020152379782273949</v>
+        <v>-0.0011001761864341984</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.028639182497637201</v>
+        <v>-0.00048646470918421676</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-9.289709987925221e-07</v>
+        <v>0.0031559970670752002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.67068866242634306</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.067557139598487803</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.00030293613613077724</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.01039775057847225</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0054361548142489446</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.022197782279439859</v>
       </c>
     </row>
   </sheetData>
